--- a/Crime Cases Kerala District wise/Book1.xlsx
+++ b/Crime Cases Kerala District wise/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MHDYOUSUF\YOUTUBE\data\Crime Cases Kerala District wise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaishnav\Desktop\youtube-chart\Crime Cases Kerala District wise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FFDD27-AA03-474E-BB4C-E65CBA19C32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F64229-95B2-47EE-A6E1-96C887B91B4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45872BD0-1844-4073-B99D-83ADCE8569D2}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,37 +502,37 @@
         <v>15</v>
       </c>
       <c r="C1" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D1" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E1" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F1" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G1" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H1" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="I1" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="J1" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="K1" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="L1" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M1" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
